--- a/data/mtcars.xlsx
+++ b/data/mtcars.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="mtcars1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -14,48 +14,48 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>mpg</t>
+    <t xml:space="preserve">mpg</t>
   </si>
   <si>
-    <t>cyl</t>
+    <t xml:space="preserve">cyl</t>
   </si>
   <si>
-    <t>disp</t>
+    <t xml:space="preserve">disp</t>
   </si>
   <si>
-    <t>hp</t>
+    <t xml:space="preserve">hp</t>
   </si>
   <si>
-    <t>drat</t>
+    <t xml:space="preserve">drat</t>
   </si>
   <si>
-    <t>wt</t>
+    <t xml:space="preserve">wt</t>
   </si>
   <si>
-    <t>qsec</t>
+    <t xml:space="preserve">qsec</t>
   </si>
   <si>
-    <t>vs</t>
+    <t xml:space="preserve">vs</t>
   </si>
   <si>
-    <t>am</t>
+    <t xml:space="preserve">am</t>
   </si>
   <si>
-    <t>gear</t>
+    <t xml:space="preserve">gear</t>
   </si>
   <si>
-    <t>carb</t>
+    <t xml:space="preserve">carb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,7 +66,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -84,14 +84,295 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -132,16 +413,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="D2" t="n">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="E2" t="n">
         <v>3.9</v>
@@ -153,30 +434,30 @@
         <v>16.46</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="D3" t="n">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="E3" t="n">
         <v>3.9</v>
@@ -188,16 +469,16 @@
         <v>17.02</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -205,13 +486,13 @@
         <v>22.8</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="D4" t="n">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="E4" t="n">
         <v>3.85</v>
@@ -223,16 +504,16 @@
         <v>18.61</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -240,13 +521,13 @@
         <v>21.4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="D5" t="n">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="E5" t="n">
         <v>3.08</v>
@@ -258,16 +539,16 @@
         <v>19.44</v>
       </c>
       <c r="H5" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -275,13 +556,13 @@
         <v>18.7</v>
       </c>
       <c r="B6" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="D6" t="n">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E6" t="n">
         <v>3.15</v>
@@ -293,16 +574,16 @@
         <v>17.02</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -310,13 +591,13 @@
         <v>18.1</v>
       </c>
       <c r="B7" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="D7" t="n">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="E7" t="n">
         <v>2.76</v>
@@ -328,16 +609,16 @@
         <v>20.22</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -345,13 +626,13 @@
         <v>14.3</v>
       </c>
       <c r="B8" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>360.0</v>
+        <v>360</v>
       </c>
       <c r="D8" t="n">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="E8" t="n">
         <v>3.21</v>
@@ -363,16 +644,16 @@
         <v>15.84</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -380,13 +661,13 @@
         <v>24.4</v>
       </c>
       <c r="B9" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>146.7</v>
       </c>
       <c r="D9" t="n">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
         <v>3.69</v>
@@ -395,19 +676,19 @@
         <v>3.19</v>
       </c>
       <c r="G9" t="n">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H9" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -415,13 +696,13 @@
         <v>22.8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>140.8</v>
       </c>
       <c r="D10" t="n">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="E10" t="n">
         <v>3.92</v>
@@ -433,16 +714,16 @@
         <v>22.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -450,13 +731,13 @@
         <v>19.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>167.6</v>
       </c>
       <c r="D11" t="n">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="E11" t="n">
         <v>3.92</v>
@@ -468,16 +749,16 @@
         <v>18.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -485,13 +766,13 @@
         <v>17.8</v>
       </c>
       <c r="B12" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
         <v>167.6</v>
       </c>
       <c r="D12" t="n">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="E12" t="n">
         <v>3.92</v>
@@ -503,16 +784,16 @@
         <v>18.9</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -520,13 +801,13 @@
         <v>16.4</v>
       </c>
       <c r="B13" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>275.8</v>
       </c>
       <c r="D13" t="n">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E13" t="n">
         <v>3.07</v>
@@ -538,16 +819,16 @@
         <v>17.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -555,13 +836,13 @@
         <v>17.3</v>
       </c>
       <c r="B14" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
         <v>275.8</v>
       </c>
       <c r="D14" t="n">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E14" t="n">
         <v>3.07</v>
@@ -573,16 +854,16 @@
         <v>17.6</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -590,13 +871,13 @@
         <v>15.2</v>
       </c>
       <c r="B15" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
         <v>275.8</v>
       </c>
       <c r="D15" t="n">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E15" t="n">
         <v>3.07</v>
@@ -605,19 +886,19 @@
         <v>3.78</v>
       </c>
       <c r="G15" t="n">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -625,13 +906,13 @@
         <v>10.4</v>
       </c>
       <c r="B16" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>472.0</v>
+        <v>472</v>
       </c>
       <c r="D16" t="n">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="E16" t="n">
         <v>2.93</v>
@@ -643,16 +924,16 @@
         <v>17.98</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -660,16 +941,16 @@
         <v>10.4</v>
       </c>
       <c r="B17" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C17" t="n">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="D17" t="n">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="E17" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>5.424</v>
@@ -678,16 +959,16 @@
         <v>17.82</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -695,13 +976,13 @@
         <v>14.7</v>
       </c>
       <c r="B18" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="D18" t="n">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="E18" t="n">
         <v>3.23</v>
@@ -713,16 +994,16 @@
         <v>17.42</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -730,13 +1011,13 @@
         <v>32.4</v>
       </c>
       <c r="B19" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C19" t="n">
         <v>78.7</v>
       </c>
       <c r="D19" t="n">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="E19" t="n">
         <v>4.08</v>
@@ -748,16 +1029,16 @@
         <v>19.47</v>
       </c>
       <c r="H19" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -765,13 +1046,13 @@
         <v>30.4</v>
       </c>
       <c r="B20" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>75.7</v>
       </c>
       <c r="D20" t="n">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="E20" t="n">
         <v>4.93</v>
@@ -783,16 +1064,16 @@
         <v>18.52</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -800,13 +1081,13 @@
         <v>33.9</v>
       </c>
       <c r="B21" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
         <v>71.1</v>
       </c>
       <c r="D21" t="n">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="E21" t="n">
         <v>4.22</v>
@@ -818,16 +1099,16 @@
         <v>19.9</v>
       </c>
       <c r="H21" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -835,13 +1116,13 @@
         <v>21.5</v>
       </c>
       <c r="B22" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
         <v>120.1</v>
       </c>
       <c r="D22" t="n">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="E22" t="n">
         <v>3.7</v>
@@ -853,16 +1134,16 @@
         <v>20.01</v>
       </c>
       <c r="H22" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -870,13 +1151,13 @@
         <v>15.5</v>
       </c>
       <c r="B23" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C23" t="n">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="D23" t="n">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="E23" t="n">
         <v>2.76</v>
@@ -888,16 +1169,16 @@
         <v>16.87</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -905,13 +1186,13 @@
         <v>15.2</v>
       </c>
       <c r="B24" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C24" t="n">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="D24" t="n">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="E24" t="n">
         <v>3.15</v>
@@ -923,16 +1204,16 @@
         <v>17.3</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -940,13 +1221,13 @@
         <v>13.3</v>
       </c>
       <c r="B25" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="D25" t="n">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="E25" t="n">
         <v>3.73</v>
@@ -958,16 +1239,16 @@
         <v>15.41</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -975,13 +1256,13 @@
         <v>19.2</v>
       </c>
       <c r="B26" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C26" t="n">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="D26" t="n">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E26" t="n">
         <v>3.08</v>
@@ -993,16 +1274,16 @@
         <v>17.05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1010,13 +1291,13 @@
         <v>27.3</v>
       </c>
       <c r="B27" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="D27" t="n">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="E27" t="n">
         <v>4.08</v>
@@ -1028,30 +1309,30 @@
         <v>18.9</v>
       </c>
       <c r="H27" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
         <v>120.3</v>
       </c>
       <c r="D28" t="n">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="E28" t="n">
         <v>4.43</v>
@@ -1063,16 +1344,16 @@
         <v>16.7</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1080,13 +1361,13 @@
         <v>30.4</v>
       </c>
       <c r="B29" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
         <v>95.1</v>
       </c>
       <c r="D29" t="n">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="E29" t="n">
         <v>3.77</v>
@@ -1098,16 +1379,16 @@
         <v>16.9</v>
       </c>
       <c r="H29" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1115,13 +1396,13 @@
         <v>15.8</v>
       </c>
       <c r="B30" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C30" t="n">
-        <v>351.0</v>
+        <v>351</v>
       </c>
       <c r="D30" t="n">
-        <v>264.0</v>
+        <v>264</v>
       </c>
       <c r="E30" t="n">
         <v>4.22</v>
@@ -1133,16 +1414,16 @@
         <v>14.5</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1150,13 +1431,13 @@
         <v>19.7</v>
       </c>
       <c r="B31" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="D31" t="n">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="E31" t="n">
         <v>3.62</v>
@@ -1168,30 +1449,30 @@
         <v>15.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="D32" t="n">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="E32" t="n">
         <v>3.54</v>
@@ -1203,16 +1484,16 @@
         <v>14.6</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1220,13 +1501,13 @@
         <v>21.4</v>
       </c>
       <c r="B33" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C33" t="n">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="D33" t="n">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="E33" t="n">
         <v>4.11</v>
@@ -1238,19 +1519,20 @@
         <v>18.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/mtcars.xlsx
+++ b/data/mtcars.xlsx
@@ -3,59 +3,85 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mtcars1" r:id="rId3" sheetId="1"/>
+    <sheet name="iris1" r:id="rId4" sheetId="2"/>
+    <sheet name="iris2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="19">
   <si>
-    <t xml:space="preserve">mpg</t>
+    <t>mpg</t>
   </si>
   <si>
-    <t xml:space="preserve">cyl</t>
+    <t>cyl</t>
   </si>
   <si>
-    <t xml:space="preserve">disp</t>
+    <t>disp</t>
   </si>
   <si>
-    <t xml:space="preserve">hp</t>
+    <t>hp</t>
   </si>
   <si>
-    <t xml:space="preserve">drat</t>
+    <t>drat</t>
   </si>
   <si>
-    <t xml:space="preserve">wt</t>
+    <t>wt</t>
   </si>
   <si>
-    <t xml:space="preserve">qsec</t>
+    <t>qsec</t>
   </si>
   <si>
-    <t xml:space="preserve">vs</t>
+    <t>vs</t>
   </si>
   <si>
-    <t xml:space="preserve">am</t>
+    <t>am</t>
   </si>
   <si>
-    <t xml:space="preserve">gear</t>
+    <t>gear</t>
   </si>
   <si>
-    <t xml:space="preserve">carb</t>
+    <t>carb</t>
+  </si>
+  <si>
+    <t>Sepal.Length</t>
+  </si>
+  <si>
+    <t>Sepal.Width</t>
+  </si>
+  <si>
+    <t>Petal.Length</t>
+  </si>
+  <si>
+    <t>Petal.Width</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>setosa</t>
+  </si>
+  <si>
+    <t>versicolor</t>
+  </si>
+  <si>
+    <t>virginica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,7 +92,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -84,295 +110,14 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
@@ -413,16 +158,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C2" t="n">
-        <v>160</v>
+        <v>160.0</v>
       </c>
       <c r="D2" t="n">
-        <v>110</v>
+        <v>110.0</v>
       </c>
       <c r="E2" t="n">
         <v>3.9</v>
@@ -434,30 +179,30 @@
         <v>16.46</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C3" t="n">
-        <v>160</v>
+        <v>160.0</v>
       </c>
       <c r="D3" t="n">
-        <v>110</v>
+        <v>110.0</v>
       </c>
       <c r="E3" t="n">
         <v>3.9</v>
@@ -469,16 +214,16 @@
         <v>17.02</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -486,13 +231,13 @@
         <v>22.8</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C4" t="n">
-        <v>108</v>
+        <v>108.0</v>
       </c>
       <c r="D4" t="n">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="E4" t="n">
         <v>3.85</v>
@@ -504,16 +249,16 @@
         <v>18.61</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -521,13 +266,13 @@
         <v>21.4</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C5" t="n">
-        <v>258</v>
+        <v>258.0</v>
       </c>
       <c r="D5" t="n">
-        <v>110</v>
+        <v>110.0</v>
       </c>
       <c r="E5" t="n">
         <v>3.08</v>
@@ -539,16 +284,16 @@
         <v>19.44</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +301,13 @@
         <v>18.7</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C6" t="n">
-        <v>360</v>
+        <v>360.0</v>
       </c>
       <c r="D6" t="n">
-        <v>175</v>
+        <v>175.0</v>
       </c>
       <c r="E6" t="n">
         <v>3.15</v>
@@ -574,16 +319,16 @@
         <v>17.02</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -591,13 +336,13 @@
         <v>18.1</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>225</v>
+        <v>225.0</v>
       </c>
       <c r="D7" t="n">
-        <v>105</v>
+        <v>105.0</v>
       </c>
       <c r="E7" t="n">
         <v>2.76</v>
@@ -609,16 +354,16 @@
         <v>20.22</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -626,13 +371,13 @@
         <v>14.3</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C8" t="n">
-        <v>360</v>
+        <v>360.0</v>
       </c>
       <c r="D8" t="n">
-        <v>245</v>
+        <v>245.0</v>
       </c>
       <c r="E8" t="n">
         <v>3.21</v>
@@ -644,16 +389,16 @@
         <v>15.84</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +406,13 @@
         <v>24.4</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C9" t="n">
         <v>146.7</v>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="E9" t="n">
         <v>3.69</v>
@@ -676,19 +421,19 @@
         <v>3.19</v>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -696,13 +441,13 @@
         <v>22.8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C10" t="n">
         <v>140.8</v>
       </c>
       <c r="D10" t="n">
-        <v>95</v>
+        <v>95.0</v>
       </c>
       <c r="E10" t="n">
         <v>3.92</v>
@@ -714,16 +459,16 @@
         <v>22.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -731,13 +476,13 @@
         <v>19.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C11" t="n">
         <v>167.6</v>
       </c>
       <c r="D11" t="n">
-        <v>123</v>
+        <v>123.0</v>
       </c>
       <c r="E11" t="n">
         <v>3.92</v>
@@ -749,16 +494,16 @@
         <v>18.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +511,13 @@
         <v>17.8</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C12" t="n">
         <v>167.6</v>
       </c>
       <c r="D12" t="n">
-        <v>123</v>
+        <v>123.0</v>
       </c>
       <c r="E12" t="n">
         <v>3.92</v>
@@ -784,16 +529,16 @@
         <v>18.9</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -801,13 +546,13 @@
         <v>16.4</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C13" t="n">
         <v>275.8</v>
       </c>
       <c r="D13" t="n">
-        <v>180</v>
+        <v>180.0</v>
       </c>
       <c r="E13" t="n">
         <v>3.07</v>
@@ -819,16 +564,16 @@
         <v>17.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -836,13 +581,13 @@
         <v>17.3</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C14" t="n">
         <v>275.8</v>
       </c>
       <c r="D14" t="n">
-        <v>180</v>
+        <v>180.0</v>
       </c>
       <c r="E14" t="n">
         <v>3.07</v>
@@ -854,16 +599,16 @@
         <v>17.6</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -871,13 +616,13 @@
         <v>15.2</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C15" t="n">
         <v>275.8</v>
       </c>
       <c r="D15" t="n">
-        <v>180</v>
+        <v>180.0</v>
       </c>
       <c r="E15" t="n">
         <v>3.07</v>
@@ -886,19 +631,19 @@
         <v>3.78</v>
       </c>
       <c r="G15" t="n">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -906,13 +651,13 @@
         <v>10.4</v>
       </c>
       <c r="B16" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C16" t="n">
-        <v>472</v>
+        <v>472.0</v>
       </c>
       <c r="D16" t="n">
-        <v>205</v>
+        <v>205.0</v>
       </c>
       <c r="E16" t="n">
         <v>2.93</v>
@@ -924,16 +669,16 @@
         <v>17.98</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K16" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
@@ -941,16 +686,16 @@
         <v>10.4</v>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C17" t="n">
-        <v>460</v>
+        <v>460.0</v>
       </c>
       <c r="D17" t="n">
-        <v>215</v>
+        <v>215.0</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="F17" t="n">
         <v>5.424</v>
@@ -959,16 +704,16 @@
         <v>17.82</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
@@ -976,13 +721,13 @@
         <v>14.7</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C18" t="n">
-        <v>440</v>
+        <v>440.0</v>
       </c>
       <c r="D18" t="n">
-        <v>230</v>
+        <v>230.0</v>
       </c>
       <c r="E18" t="n">
         <v>3.23</v>
@@ -994,16 +739,16 @@
         <v>17.42</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
@@ -1011,13 +756,13 @@
         <v>32.4</v>
       </c>
       <c r="B19" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C19" t="n">
         <v>78.7</v>
       </c>
       <c r="D19" t="n">
-        <v>66</v>
+        <v>66.0</v>
       </c>
       <c r="E19" t="n">
         <v>4.08</v>
@@ -1029,16 +774,16 @@
         <v>19.47</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -1046,13 +791,13 @@
         <v>30.4</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C20" t="n">
         <v>75.7</v>
       </c>
       <c r="D20" t="n">
-        <v>52</v>
+        <v>52.0</v>
       </c>
       <c r="E20" t="n">
         <v>4.93</v>
@@ -1064,16 +809,16 @@
         <v>18.52</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -1081,13 +826,13 @@
         <v>33.9</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C21" t="n">
         <v>71.1</v>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="E21" t="n">
         <v>4.22</v>
@@ -1099,16 +844,16 @@
         <v>19.9</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -1116,13 +861,13 @@
         <v>21.5</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C22" t="n">
         <v>120.1</v>
       </c>
       <c r="D22" t="n">
-        <v>97</v>
+        <v>97.0</v>
       </c>
       <c r="E22" t="n">
         <v>3.7</v>
@@ -1134,16 +879,16 @@
         <v>20.01</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23">
@@ -1151,13 +896,13 @@
         <v>15.5</v>
       </c>
       <c r="B23" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C23" t="n">
-        <v>318</v>
+        <v>318.0</v>
       </c>
       <c r="D23" t="n">
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="E23" t="n">
         <v>2.76</v>
@@ -1169,16 +914,16 @@
         <v>16.87</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="24">
@@ -1186,13 +931,13 @@
         <v>15.2</v>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C24" t="n">
-        <v>304</v>
+        <v>304.0</v>
       </c>
       <c r="D24" t="n">
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="E24" t="n">
         <v>3.15</v>
@@ -1204,16 +949,16 @@
         <v>17.3</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25">
@@ -1221,13 +966,13 @@
         <v>13.3</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C25" t="n">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="D25" t="n">
-        <v>245</v>
+        <v>245.0</v>
       </c>
       <c r="E25" t="n">
         <v>3.73</v>
@@ -1239,16 +984,16 @@
         <v>15.41</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="26">
@@ -1256,13 +1001,13 @@
         <v>19.2</v>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C26" t="n">
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="D26" t="n">
-        <v>175</v>
+        <v>175.0</v>
       </c>
       <c r="E26" t="n">
         <v>3.08</v>
@@ -1274,16 +1019,16 @@
         <v>17.05</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
@@ -1291,13 +1036,13 @@
         <v>27.3</v>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C27" t="n">
-        <v>79</v>
+        <v>79.0</v>
       </c>
       <c r="D27" t="n">
-        <v>66</v>
+        <v>66.0</v>
       </c>
       <c r="E27" t="n">
         <v>4.08</v>
@@ -1309,30 +1054,30 @@
         <v>18.9</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B28" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C28" t="n">
         <v>120.3</v>
       </c>
       <c r="D28" t="n">
-        <v>91</v>
+        <v>91.0</v>
       </c>
       <c r="E28" t="n">
         <v>4.43</v>
@@ -1344,16 +1089,16 @@
         <v>16.7</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
@@ -1361,13 +1106,13 @@
         <v>30.4</v>
       </c>
       <c r="B29" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C29" t="n">
         <v>95.1</v>
       </c>
       <c r="D29" t="n">
-        <v>113</v>
+        <v>113.0</v>
       </c>
       <c r="E29" t="n">
         <v>3.77</v>
@@ -1379,16 +1124,16 @@
         <v>16.9</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -1396,13 +1141,13 @@
         <v>15.8</v>
       </c>
       <c r="B30" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C30" t="n">
-        <v>351</v>
+        <v>351.0</v>
       </c>
       <c r="D30" t="n">
-        <v>264</v>
+        <v>264.0</v>
       </c>
       <c r="E30" t="n">
         <v>4.22</v>
@@ -1414,16 +1159,16 @@
         <v>14.5</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
@@ -1431,13 +1176,13 @@
         <v>19.7</v>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C31" t="n">
-        <v>145</v>
+        <v>145.0</v>
       </c>
       <c r="D31" t="n">
-        <v>175</v>
+        <v>175.0</v>
       </c>
       <c r="E31" t="n">
         <v>3.62</v>
@@ -1449,30 +1194,30 @@
         <v>15.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="K31" t="n">
-        <v>6</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C32" t="n">
-        <v>301</v>
+        <v>301.0</v>
       </c>
       <c r="D32" t="n">
-        <v>335</v>
+        <v>335.0</v>
       </c>
       <c r="E32" t="n">
         <v>3.54</v>
@@ -1484,16 +1229,16 @@
         <v>14.6</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="K32" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="33">
@@ -1501,13 +1246,13 @@
         <v>21.4</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C33" t="n">
-        <v>121</v>
+        <v>121.0</v>
       </c>
       <c r="D33" t="n">
-        <v>109</v>
+        <v>109.0</v>
       </c>
       <c r="E33" t="n">
         <v>4.11</v>
@@ -1519,20 +1264,5179 @@
         <v>18.6</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C105" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E132" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C58" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C69" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C70" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E70" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C72" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C73" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C80" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E80" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C87" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C92" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C96" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C101" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C102" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C105" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C108" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="B111" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B112" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="B114" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E116" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="B119" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D119" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E121" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C123" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E132" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="B133" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E136" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E137" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B138" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D138" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E138" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E142" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E145" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E150" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/data/mtcars.xlsx
+++ b/data/mtcars.xlsx
@@ -8,13 +8,12 @@
   <sheets>
     <sheet name="mtcars1" r:id="rId3" sheetId="1"/>
     <sheet name="iris1" r:id="rId4" sheetId="2"/>
-    <sheet name="iris2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="19">
   <si>
     <t>mpg</t>
   </si>
@@ -3859,2584 +3858,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="B31" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="B34" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="B35" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="B38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="B39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="B41" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B42" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="B43" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="B44" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B45" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="B46" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="B47" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="B48" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="B49" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="B50" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="C50" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B51" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="E51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B52" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="C52" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="B53" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C54" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E54" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E55" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E57" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="B58" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E58" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D59" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D60" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="B61" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E61" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B62" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D62" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="B63" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E63" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C64" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="B65" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="C65" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="B66" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="C66" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E66" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="B67" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="B68" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C68" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D68" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E68" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="B69" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C69" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="B70" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C70" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D70" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E70" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="B71" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C71" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D71" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="B72" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="C72" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E72" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="B73" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C73" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E73" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="B74" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C74" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D74" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E74" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="B75" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C75" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="D75" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E75" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="B76" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="C76" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D76" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E76" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="B77" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D77" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E77" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="B78" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C78" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D78" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E78" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="B79" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C79" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E79" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B80" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="C80" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D80" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E80" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D81" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E81" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="B82" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C82" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="B83" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="C83" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D83" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E83" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="B84" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C84" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E84" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B85" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C85" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D85" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E85" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="B86" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C86" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E86" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B87" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C87" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E87" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="B88" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C88" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E88" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="B89" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C89" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D89" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E89" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="B90" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C90" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D90" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E90" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C91" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E91" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="B92" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C92" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="D92" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E92" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="B93" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="D93" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="B94" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C94" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E94" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B95" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C95" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="D95" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E95" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="B96" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C96" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="D96" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E96" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="B97" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C97" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="D97" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="E97" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="B98" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="C98" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E98" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="B99" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="C99" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="D99" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E99" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="B100" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C100" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E100" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="B101" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C101" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D101" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="E101" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="B102" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C102" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E102" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="B103" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C103" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D103" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E103" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="B104" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C104" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E104" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="B105" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="C105" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E105" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="B106" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C106" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D106" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E106" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="B107" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="D107" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E107" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="B108" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C108" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="E108" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="B109" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="C109" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E109" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="B110" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C110" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E110" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="B111" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="C111" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E111" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="B112" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="C112" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D112" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E112" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="B113" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C113" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E113" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="B114" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C114" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E114" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="B115" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C115" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E115" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="B116" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C116" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D116" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E116" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="B117" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="C117" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="D117" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E117" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="B118" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C118" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E118" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="B119" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C119" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E119" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="B120" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C120" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D120" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E120" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B121" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C121" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E121" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="B122" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="C122" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D122" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E122" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="B123" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C123" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E123" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="B124" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C124" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D124" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E124" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="B125" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C125" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E125" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="B126" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C126" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D126" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E126" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="B127" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="C127" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E127" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="B128" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C128" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E128" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="B129" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C129" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E129" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="B130" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C130" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="D130" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E130" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="B131" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C131" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="E131" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="B132" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C132" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E132" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="B133" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D133" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E133" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="B134" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C134" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="D134" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E134" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="B135" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="C135" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E135" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="B136" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="C136" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="E136" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="B137" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C137" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E137" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="B138" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C138" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="D138" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E138" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="B139" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C139" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E139" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B140" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C140" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E140" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="B141" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C141" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="D141" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E141" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="B142" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C142" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="D142" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E142" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="B143" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C143" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E143" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="B144" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="C144" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E144" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="B145" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="C145" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D145" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E145" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="B146" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="C146" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D146" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E146" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="B147" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C147" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E147" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="B148" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C148" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="E148" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="B149" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C149" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="E149" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="B150" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="C150" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="D150" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E150" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="B151" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C151" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="D151" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E151" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>